--- a/v5/main_exp/denoise/denoise_classification.xlsx
+++ b/v5/main_exp/denoise/denoise_classification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\analysis\analysis_data\(orth)_denoise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\main_exp\denoise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5448A8C1-81F8-4805-B678-4CFCDE10E3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA7B8D6-3FFD-4B6B-AE86-5F053E2F7C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5650" yWindow="1220" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="880" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>none_reg:no-denoise</t>
-  </si>
-  <si>
     <t>orth:no-denoise</t>
   </si>
   <si>
@@ -629,6 +626,10 @@
   </si>
   <si>
     <t>0.46%</t>
+  </si>
+  <si>
+    <t>none_reg:lr-relu-lr(representation)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1019,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1029,7 @@
     <col min="1" max="1" width="48.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1044,1141 +1045,1141 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
       <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
       <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
       <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
         <v>93</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>94</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
         <v>96</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
       <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
       <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
         <v>120</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>121</v>
-      </c>
-      <c r="F33" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
         <v>123</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
       <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
         <v>147</v>
       </c>
-      <c r="D40" t="s">
-        <v>148</v>
-      </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
       <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
         <v>149</v>
-      </c>
-      <c r="E41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
         <v>151</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
       <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
         <v>42</v>
       </c>
-      <c r="C49" t="s">
-        <v>43</v>
-      </c>
       <c r="D49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" t="s">
         <v>173</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>174</v>
-      </c>
-      <c r="F49" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
         <v>176</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D50" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
       <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D52" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E54" t="s">
-        <v>190</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
         <v>42</v>
       </c>
-      <c r="C57" t="s">
-        <v>43</v>
-      </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" t="s">
         <v>196</v>
-      </c>
-      <c r="F57" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" s="4">
         <v>3</v>
@@ -2195,22 +2196,22 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
         <v>199</v>
       </c>
-      <c r="C59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>200</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>201</v>
-      </c>
-      <c r="F59" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
